--- a/out/CE/FigA_19.xlsx
+++ b/out/CE/FigA_19.xlsx
@@ -382,133 +382,3367 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7C0A85-DDAD-4E36-A68B-BF9E1C676EBA}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:CW11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C11"/>
+      <selection sqref="A1:CW11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.56142000000000003</v>
+        <v>0.56613999999999998</v>
       </c>
       <c r="B1">
-        <v>0.52966000000000002</v>
+        <v>0.57633999999999996</v>
       </c>
       <c r="C1">
-        <v>0.54554000000000002</v>
+        <v>0.57838000000000001</v>
+      </c>
+      <c r="D1">
+        <v>0.56803999999999999</v>
+      </c>
+      <c r="E1">
+        <v>0.54835999999999996</v>
+      </c>
+      <c r="F1">
+        <v>0.55606</v>
+      </c>
+      <c r="G1">
+        <v>0.5534</v>
+      </c>
+      <c r="H1">
+        <v>0.54447999999999996</v>
+      </c>
+      <c r="I1">
+        <v>0.57035999999999998</v>
+      </c>
+      <c r="J1">
+        <v>0.57620000000000005</v>
+      </c>
+      <c r="K1">
+        <v>0.54813999999999996</v>
+      </c>
+      <c r="L1">
+        <v>0.54710000000000003</v>
+      </c>
+      <c r="M1">
+        <v>0.54161999999999999</v>
+      </c>
+      <c r="N1">
+        <v>0.58833999999999997</v>
+      </c>
+      <c r="O1">
+        <v>0.55481999999999998</v>
+      </c>
+      <c r="P1">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="Q1">
+        <v>0.59341999999999995</v>
+      </c>
+      <c r="R1">
+        <v>0.53576000000000001</v>
+      </c>
+      <c r="S1">
+        <v>0.56381999999999999</v>
+      </c>
+      <c r="T1">
+        <v>0.56381999999999999</v>
+      </c>
+      <c r="U1">
+        <v>0.52922000000000002</v>
+      </c>
+      <c r="V1">
+        <v>0.54071999999999998</v>
+      </c>
+      <c r="W1">
+        <v>0.56566000000000005</v>
+      </c>
+      <c r="X1">
+        <v>0.56074000000000002</v>
+      </c>
+      <c r="Y1">
+        <v>0.58833999999999997</v>
+      </c>
+      <c r="Z1">
+        <v>0.55056000000000005</v>
+      </c>
+      <c r="AA1">
+        <v>0.55074000000000001</v>
+      </c>
+      <c r="AB1">
+        <v>0.54690000000000005</v>
+      </c>
+      <c r="AC1">
+        <v>0.55779999999999996</v>
+      </c>
+      <c r="AD1">
+        <v>0.58053999999999994</v>
+      </c>
+      <c r="AE1">
+        <v>0.55535999999999996</v>
+      </c>
+      <c r="AF1">
+        <v>0.55208000000000002</v>
+      </c>
+      <c r="AG1">
+        <v>0.54790000000000005</v>
+      </c>
+      <c r="AH1">
+        <v>0.54645999999999995</v>
+      </c>
+      <c r="AI1">
+        <v>0.54361999999999999</v>
+      </c>
+      <c r="AJ1">
+        <v>0.54312000000000005</v>
+      </c>
+      <c r="AK1">
+        <v>0.58784000000000003</v>
+      </c>
+      <c r="AL1">
+        <v>0.55732000000000004</v>
+      </c>
+      <c r="AM1">
+        <v>0.54318</v>
+      </c>
+      <c r="AN1">
+        <v>0.58952000000000004</v>
+      </c>
+      <c r="AO1">
+        <v>0.54967999999999995</v>
+      </c>
+      <c r="AP1">
+        <v>0.58442000000000005</v>
+      </c>
+      <c r="AQ1">
+        <v>0.56288000000000005</v>
+      </c>
+      <c r="AR1">
+        <v>0.56559999999999999</v>
+      </c>
+      <c r="AS1">
+        <v>0.56335999999999997</v>
+      </c>
+      <c r="AT1">
+        <v>0.54479999999999995</v>
+      </c>
+      <c r="AU1">
+        <v>0.56340000000000001</v>
+      </c>
+      <c r="AV1">
+        <v>0.54147999999999996</v>
+      </c>
+      <c r="AW1">
+        <v>0.54979999999999996</v>
+      </c>
+      <c r="AX1">
+        <v>0.54120000000000001</v>
+      </c>
+      <c r="AY1">
+        <v>0.55896000000000001</v>
+      </c>
+      <c r="AZ1">
+        <v>0.56511999999999996</v>
+      </c>
+      <c r="BA1">
+        <v>0.54835999999999996</v>
+      </c>
+      <c r="BB1">
+        <v>0.55115999999999998</v>
+      </c>
+      <c r="BC1">
+        <v>0.53620000000000001</v>
+      </c>
+      <c r="BD1">
+        <v>0.52671999999999997</v>
+      </c>
+      <c r="BE1">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="BF1">
+        <v>0.57389999999999997</v>
+      </c>
+      <c r="BG1">
+        <v>0.54412000000000005</v>
+      </c>
+      <c r="BH1">
+        <v>0.57955999999999996</v>
+      </c>
+      <c r="BI1">
+        <v>0.56962000000000002</v>
+      </c>
+      <c r="BJ1">
+        <v>0.52724000000000004</v>
+      </c>
+      <c r="BK1">
+        <v>0.54469999999999996</v>
+      </c>
+      <c r="BL1">
+        <v>0.58467999999999998</v>
+      </c>
+      <c r="BM1">
+        <v>0.56667999999999996</v>
+      </c>
+      <c r="BN1">
+        <v>0.54515999999999998</v>
+      </c>
+      <c r="BO1">
+        <v>0.55542000000000002</v>
+      </c>
+      <c r="BP1">
+        <v>0.57298000000000004</v>
+      </c>
+      <c r="BQ1">
+        <v>0.55889999999999995</v>
+      </c>
+      <c r="BR1">
+        <v>0.56406000000000001</v>
+      </c>
+      <c r="BS1">
+        <v>0.53149999999999997</v>
+      </c>
+      <c r="BT1">
+        <v>0.53739999999999999</v>
+      </c>
+      <c r="BU1">
+        <v>0.54632000000000003</v>
+      </c>
+      <c r="BV1">
+        <v>0.57508000000000004</v>
+      </c>
+      <c r="BW1">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="BX1">
+        <v>0.53464</v>
+      </c>
+      <c r="BY1">
+        <v>0.56376000000000004</v>
+      </c>
+      <c r="BZ1">
+        <v>0.56269999999999998</v>
+      </c>
+      <c r="CA1">
+        <v>0.58550000000000002</v>
+      </c>
+      <c r="CB1">
+        <v>0.54525999999999997</v>
+      </c>
+      <c r="CC1">
+        <v>0.55688000000000004</v>
+      </c>
+      <c r="CD1">
+        <v>0.54098000000000002</v>
+      </c>
+      <c r="CE1">
+        <v>0.60407999999999995</v>
+      </c>
+      <c r="CF1">
+        <v>0.55496000000000001</v>
+      </c>
+      <c r="CG1">
+        <v>0.56277999999999995</v>
+      </c>
+      <c r="CH1">
+        <v>0.54869999999999997</v>
+      </c>
+      <c r="CI1">
+        <v>0.54212000000000005</v>
+      </c>
+      <c r="CJ1">
+        <v>0.60840000000000005</v>
+      </c>
+      <c r="CK1">
+        <v>0.53878000000000004</v>
+      </c>
+      <c r="CL1">
+        <v>0.54730000000000001</v>
+      </c>
+      <c r="CM1">
+        <v>0.56432000000000004</v>
+      </c>
+      <c r="CN1">
+        <v>0.57821999999999996</v>
+      </c>
+      <c r="CO1">
+        <v>0.54074</v>
+      </c>
+      <c r="CP1">
+        <v>0.54766000000000004</v>
+      </c>
+      <c r="CQ1">
+        <v>0.54878000000000005</v>
+      </c>
+      <c r="CR1">
+        <v>0.57155999999999996</v>
+      </c>
+      <c r="CS1">
+        <v>0.55337999999999998</v>
+      </c>
+      <c r="CT1">
+        <v>0.5504</v>
+      </c>
+      <c r="CU1">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="CV1">
+        <v>0.56062000000000001</v>
+      </c>
+      <c r="CW1">
+        <v>0.55738200000000004</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>0.52015999999999996</v>
+      </c>
+      <c r="B2">
+        <v>0.52173999999999998</v>
+      </c>
+      <c r="C2">
+        <v>0.53042</v>
+      </c>
+      <c r="D2">
+        <v>0.53368000000000004</v>
+      </c>
+      <c r="E2">
+        <v>0.51395999999999997</v>
+      </c>
+      <c r="F2">
+        <v>0.53910000000000002</v>
+      </c>
+      <c r="G2">
+        <v>0.54893999999999998</v>
+      </c>
+      <c r="H2">
+        <v>0.57321999999999995</v>
+      </c>
+      <c r="I2">
+        <v>0.49736000000000002</v>
+      </c>
+      <c r="J2">
+        <v>0.54420000000000002</v>
+      </c>
+      <c r="K2">
+        <v>0.54730000000000001</v>
+      </c>
+      <c r="L2">
+        <v>0.51492000000000004</v>
+      </c>
+      <c r="M2">
+        <v>0.53268000000000004</v>
+      </c>
+      <c r="N2">
+        <v>0.52673999999999999</v>
+      </c>
+      <c r="O2">
+        <v>0.50307999999999997</v>
+      </c>
+      <c r="P2">
+        <v>0.51656000000000002</v>
+      </c>
+      <c r="Q2">
+        <v>0.53990000000000005</v>
+      </c>
+      <c r="R2">
+        <v>0.53088000000000002</v>
+      </c>
+      <c r="S2">
+        <v>0.57267999999999997</v>
+      </c>
+      <c r="T2">
+        <v>0.53552</v>
+      </c>
+      <c r="U2">
+        <v>0.53695999999999999</v>
+      </c>
+      <c r="V2">
+        <v>0.56455999999999995</v>
+      </c>
+      <c r="W2">
+        <v>0.53824000000000005</v>
+      </c>
+      <c r="X2">
+        <v>0.52095999999999998</v>
+      </c>
+      <c r="Y2">
+        <v>0.55244000000000004</v>
+      </c>
+      <c r="Z2">
+        <v>0.48605999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>0.53598000000000001</v>
+      </c>
+      <c r="AB2">
+        <v>0.53266000000000002</v>
+      </c>
+      <c r="AC2">
+        <v>0.53090000000000004</v>
+      </c>
+      <c r="AD2">
+        <v>0.54296</v>
+      </c>
+      <c r="AE2">
+        <v>0.54503999999999997</v>
+      </c>
+      <c r="AF2">
+        <v>0.53559999999999997</v>
+      </c>
+      <c r="AG2">
+        <v>0.52</v>
+      </c>
+      <c r="AH2">
+        <v>0.51459999999999995</v>
+      </c>
+      <c r="AI2">
+        <v>0.51419999999999999</v>
+      </c>
+      <c r="AJ2">
+        <v>0.53415999999999997</v>
+      </c>
+      <c r="AK2">
+        <v>0.5383</v>
+      </c>
+      <c r="AL2">
+        <v>0.50636000000000003</v>
+      </c>
+      <c r="AM2">
+        <v>0.56022000000000005</v>
+      </c>
+      <c r="AN2">
+        <v>0.53912000000000004</v>
+      </c>
+      <c r="AO2">
+        <v>0.51678000000000002</v>
+      </c>
+      <c r="AP2">
+        <v>0.53715999999999997</v>
+      </c>
+      <c r="AQ2">
+        <v>0.52805999999999997</v>
+      </c>
+      <c r="AR2">
+        <v>0.53088000000000002</v>
+      </c>
+      <c r="AS2">
+        <v>0.49941999999999998</v>
+      </c>
+      <c r="AT2">
+        <v>0.54844000000000004</v>
+      </c>
+      <c r="AU2">
+        <v>0.55730000000000002</v>
+      </c>
+      <c r="AV2">
+        <v>0.52815999999999996</v>
+      </c>
+      <c r="AW2">
+        <v>0.50239999999999996</v>
+      </c>
+      <c r="AX2">
+        <v>0.51844000000000001</v>
+      </c>
+      <c r="AY2">
         <v>0.52285999999999999</v>
       </c>
-      <c r="B2">
-        <v>0.50424000000000002</v>
-      </c>
-      <c r="C2">
-        <v>0.51354999999999995</v>
+      <c r="AZ2">
+        <v>0.51902000000000004</v>
+      </c>
+      <c r="BA2">
+        <v>0.51748000000000005</v>
+      </c>
+      <c r="BB2">
+        <v>0.53136000000000005</v>
+      </c>
+      <c r="BC2">
+        <v>0.55635999999999997</v>
+      </c>
+      <c r="BD2">
+        <v>0.53524000000000005</v>
+      </c>
+      <c r="BE2">
+        <v>0.51504000000000005</v>
+      </c>
+      <c r="BF2">
+        <v>0.52281999999999995</v>
+      </c>
+      <c r="BG2">
+        <v>0.53749999999999998</v>
+      </c>
+      <c r="BH2">
+        <v>0.51105999999999996</v>
+      </c>
+      <c r="BI2">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="BJ2">
+        <v>0.54537999999999998</v>
+      </c>
+      <c r="BK2">
+        <v>0.53259999999999996</v>
+      </c>
+      <c r="BL2">
+        <v>0.53037999999999996</v>
+      </c>
+      <c r="BM2">
+        <v>0.53283999999999998</v>
+      </c>
+      <c r="BN2">
+        <v>0.54722000000000004</v>
+      </c>
+      <c r="BO2">
+        <v>0.51932</v>
+      </c>
+      <c r="BP2">
+        <v>0.52932000000000001</v>
+      </c>
+      <c r="BQ2">
+        <v>0.51646000000000003</v>
+      </c>
+      <c r="BR2">
+        <v>0.54290000000000005</v>
+      </c>
+      <c r="BS2">
+        <v>0.54347999999999996</v>
+      </c>
+      <c r="BT2">
+        <v>0.48902000000000001</v>
+      </c>
+      <c r="BU2">
+        <v>0.52759999999999996</v>
+      </c>
+      <c r="BV2">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="BW2">
+        <v>0.52227999999999997</v>
+      </c>
+      <c r="BX2">
+        <v>0.56906000000000001</v>
+      </c>
+      <c r="BY2">
+        <v>0.52936000000000005</v>
+      </c>
+      <c r="BZ2">
+        <v>0.53173999999999999</v>
+      </c>
+      <c r="CA2">
+        <v>0.54303999999999997</v>
+      </c>
+      <c r="CB2">
+        <v>0.52456000000000003</v>
+      </c>
+      <c r="CC2">
+        <v>0.52002000000000004</v>
+      </c>
+      <c r="CD2">
+        <v>0.51546000000000003</v>
+      </c>
+      <c r="CE2">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="CF2">
+        <v>0.57869999999999999</v>
+      </c>
+      <c r="CG2">
+        <v>0.53093999999999997</v>
+      </c>
+      <c r="CH2">
+        <v>0.53917999999999999</v>
+      </c>
+      <c r="CI2">
+        <v>0.54410000000000003</v>
+      </c>
+      <c r="CJ2">
+        <v>0.52876000000000001</v>
+      </c>
+      <c r="CK2">
+        <v>0.55098000000000003</v>
+      </c>
+      <c r="CL2">
+        <v>0.54339999999999999</v>
+      </c>
+      <c r="CM2">
+        <v>0.50895999999999997</v>
+      </c>
+      <c r="CN2">
+        <v>0.49915999999999999</v>
+      </c>
+      <c r="CO2">
+        <v>0.53961999999999999</v>
+      </c>
+      <c r="CP2">
+        <v>0.54771999999999998</v>
+      </c>
+      <c r="CQ2">
+        <v>0.53388000000000002</v>
+      </c>
+      <c r="CR2">
+        <v>0.52832000000000001</v>
+      </c>
+      <c r="CS2">
+        <v>0.55676000000000003</v>
+      </c>
+      <c r="CT2">
+        <v>0.53198000000000001</v>
+      </c>
+      <c r="CU2">
+        <v>0.53346000000000005</v>
+      </c>
+      <c r="CV2">
+        <v>0.53656000000000004</v>
+      </c>
+      <c r="CW2">
+        <v>0.53183660000000021</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.46795999999999999</v>
+        <v>0.49120000000000003</v>
       </c>
       <c r="B3">
-        <v>0.46300000000000002</v>
+        <v>0.47702</v>
       </c>
       <c r="C3">
-        <v>0.46548</v>
+        <v>0.4728</v>
+      </c>
+      <c r="D3">
+        <v>0.49553999999999998</v>
+      </c>
+      <c r="E3">
+        <v>0.46106000000000003</v>
+      </c>
+      <c r="F3">
+        <v>0.48587999999999998</v>
+      </c>
+      <c r="G3">
+        <v>0.49587999999999999</v>
+      </c>
+      <c r="H3">
+        <v>0.47242000000000001</v>
+      </c>
+      <c r="I3">
+        <v>0.46738000000000002</v>
+      </c>
+      <c r="J3">
+        <v>0.4819</v>
+      </c>
+      <c r="K3">
+        <v>0.48414000000000001</v>
+      </c>
+      <c r="L3">
+        <v>0.48236000000000001</v>
+      </c>
+      <c r="M3">
+        <v>0.50448000000000004</v>
+      </c>
+      <c r="N3">
+        <v>0.47186</v>
+      </c>
+      <c r="O3">
+        <v>0.50714000000000004</v>
+      </c>
+      <c r="P3">
+        <v>0.47842000000000001</v>
+      </c>
+      <c r="Q3">
+        <v>0.48052</v>
+      </c>
+      <c r="R3">
+        <v>0.48242000000000002</v>
+      </c>
+      <c r="S3">
+        <v>0.50412000000000001</v>
+      </c>
+      <c r="T3">
+        <v>0.50207999999999997</v>
+      </c>
+      <c r="U3">
+        <v>0.48036000000000001</v>
+      </c>
+      <c r="V3">
+        <v>0.50131999999999999</v>
+      </c>
+      <c r="W3">
+        <v>0.52415999999999996</v>
+      </c>
+      <c r="X3">
+        <v>0.48964000000000002</v>
+      </c>
+      <c r="Y3">
+        <v>0.47502</v>
+      </c>
+      <c r="Z3">
+        <v>0.495</v>
+      </c>
+      <c r="AA3">
+        <v>0.47527999999999998</v>
+      </c>
+      <c r="AB3">
+        <v>0.47796</v>
+      </c>
+      <c r="AC3">
+        <v>0.52339999999999998</v>
+      </c>
+      <c r="AD3">
+        <v>0.496</v>
+      </c>
+      <c r="AE3">
+        <v>0.50082000000000004</v>
+      </c>
+      <c r="AF3">
+        <v>0.49736000000000002</v>
+      </c>
+      <c r="AG3">
+        <v>0.47376000000000001</v>
+      </c>
+      <c r="AH3">
+        <v>0.50202000000000002</v>
+      </c>
+      <c r="AI3">
+        <v>0.48074</v>
+      </c>
+      <c r="AJ3">
+        <v>0.47789999999999999</v>
+      </c>
+      <c r="AK3">
+        <v>0.4738</v>
+      </c>
+      <c r="AL3">
+        <v>0.50222</v>
+      </c>
+      <c r="AM3">
+        <v>0.47917999999999999</v>
+      </c>
+      <c r="AN3">
+        <v>0.48715999999999998</v>
+      </c>
+      <c r="AO3">
+        <v>0.46598000000000001</v>
+      </c>
+      <c r="AP3">
+        <v>0.48183999999999999</v>
+      </c>
+      <c r="AQ3">
+        <v>0.49922</v>
+      </c>
+      <c r="AR3">
+        <v>0.46283999999999997</v>
+      </c>
+      <c r="AS3">
+        <v>0.47633999999999999</v>
+      </c>
+      <c r="AT3">
+        <v>0.49852000000000002</v>
+      </c>
+      <c r="AU3">
+        <v>0.54803999999999997</v>
+      </c>
+      <c r="AV3">
+        <v>0.48631999999999997</v>
+      </c>
+      <c r="AW3">
+        <v>0.50370000000000004</v>
+      </c>
+      <c r="AX3">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="AY3">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="AZ3">
+        <v>0.48712</v>
+      </c>
+      <c r="BA3">
+        <v>0.46476000000000001</v>
+      </c>
+      <c r="BB3">
+        <v>0.48454000000000003</v>
+      </c>
+      <c r="BC3">
+        <v>0.51282000000000005</v>
+      </c>
+      <c r="BD3">
+        <v>0.46345999999999998</v>
+      </c>
+      <c r="BE3">
+        <v>0.48649999999999999</v>
+      </c>
+      <c r="BF3">
+        <v>0.49758000000000002</v>
+      </c>
+      <c r="BG3">
+        <v>0.51061999999999996</v>
+      </c>
+      <c r="BH3">
+        <v>0.46692</v>
+      </c>
+      <c r="BI3">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="BJ3">
+        <v>0.4819</v>
+      </c>
+      <c r="BK3">
+        <v>0.48427999999999999</v>
+      </c>
+      <c r="BL3">
+        <v>0.47660000000000002</v>
+      </c>
+      <c r="BM3">
+        <v>0.50012000000000001</v>
+      </c>
+      <c r="BN3">
+        <v>0.50863999999999998</v>
+      </c>
+      <c r="BO3">
+        <v>0.48905999999999999</v>
+      </c>
+      <c r="BP3">
+        <v>0.45979999999999999</v>
+      </c>
+      <c r="BQ3">
+        <v>0.49064000000000002</v>
+      </c>
+      <c r="BR3">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="BS3">
+        <v>0.50227999999999995</v>
+      </c>
+      <c r="BT3">
+        <v>0.51078000000000001</v>
+      </c>
+      <c r="BU3">
+        <v>0.50846000000000002</v>
+      </c>
+      <c r="BV3">
+        <v>0.51332</v>
+      </c>
+      <c r="BW3">
+        <v>0.49271999999999999</v>
+      </c>
+      <c r="BX3">
+        <v>0.49690000000000001</v>
+      </c>
+      <c r="BY3">
+        <v>0.49968000000000001</v>
+      </c>
+      <c r="BZ3">
+        <v>0.48232000000000003</v>
+      </c>
+      <c r="CA3">
+        <v>0.51080000000000003</v>
+      </c>
+      <c r="CB3">
+        <v>0.53764000000000001</v>
+      </c>
+      <c r="CC3">
+        <v>0.47693999999999998</v>
+      </c>
+      <c r="CD3">
+        <v>0.48261999999999999</v>
+      </c>
+      <c r="CE3">
+        <v>0.46607999999999999</v>
+      </c>
+      <c r="CF3">
+        <v>0.48859999999999998</v>
+      </c>
+      <c r="CG3">
+        <v>0.5111</v>
+      </c>
+      <c r="CH3">
+        <v>0.47308</v>
+      </c>
+      <c r="CI3">
+        <v>0.49691999999999997</v>
+      </c>
+      <c r="CJ3">
+        <v>0.5151</v>
+      </c>
+      <c r="CK3">
+        <v>0.51456000000000002</v>
+      </c>
+      <c r="CL3">
+        <v>0.48903999999999997</v>
+      </c>
+      <c r="CM3">
+        <v>0.49149999999999999</v>
+      </c>
+      <c r="CN3">
+        <v>0.48908000000000001</v>
+      </c>
+      <c r="CO3">
+        <v>0.46829999999999999</v>
+      </c>
+      <c r="CP3">
+        <v>0.45019999999999999</v>
+      </c>
+      <c r="CQ3">
+        <v>0.50192000000000003</v>
+      </c>
+      <c r="CR3">
+        <v>0.50234000000000001</v>
+      </c>
+      <c r="CS3">
+        <v>0.47151999999999999</v>
+      </c>
+      <c r="CT3">
+        <v>0.49465999999999999</v>
+      </c>
+      <c r="CU3">
+        <v>0.49981999999999999</v>
+      </c>
+      <c r="CV3">
+        <v>0.49465999999999999</v>
+      </c>
+      <c r="CW3">
+        <v>0.49025019999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.46214</v>
+        <v>0.45663999999999999</v>
       </c>
       <c r="B4">
-        <v>0.50707999999999998</v>
+        <v>0.4713</v>
       </c>
       <c r="C4">
-        <v>0.48460999999999999</v>
+        <v>0.44403999999999999</v>
+      </c>
+      <c r="D4">
+        <v>0.50409999999999999</v>
+      </c>
+      <c r="E4">
+        <v>0.47832000000000002</v>
+      </c>
+      <c r="F4">
+        <v>0.47183999999999998</v>
+      </c>
+      <c r="G4">
+        <v>0.48465999999999998</v>
+      </c>
+      <c r="H4">
+        <v>0.48143999999999998</v>
+      </c>
+      <c r="I4">
+        <v>0.4612</v>
+      </c>
+      <c r="J4">
+        <v>0.47865999999999997</v>
+      </c>
+      <c r="K4">
+        <v>0.44022</v>
+      </c>
+      <c r="L4">
+        <v>0.47145999999999999</v>
+      </c>
+      <c r="M4">
+        <v>0.46711999999999998</v>
+      </c>
+      <c r="N4">
+        <v>0.46504000000000001</v>
+      </c>
+      <c r="O4">
+        <v>0.49753999999999998</v>
+      </c>
+      <c r="P4">
+        <v>0.49164000000000002</v>
+      </c>
+      <c r="Q4">
+        <v>0.49615999999999999</v>
+      </c>
+      <c r="R4">
+        <v>0.47927999999999998</v>
+      </c>
+      <c r="S4">
+        <v>0.46914</v>
+      </c>
+      <c r="T4">
+        <v>0.496</v>
+      </c>
+      <c r="U4">
+        <v>0.46839999999999998</v>
+      </c>
+      <c r="V4">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="W4">
+        <v>0.46858</v>
+      </c>
+      <c r="X4">
+        <v>0.45290000000000002</v>
+      </c>
+      <c r="Y4">
+        <v>0.50026000000000004</v>
+      </c>
+      <c r="Z4">
+        <v>0.50661999999999996</v>
+      </c>
+      <c r="AA4">
+        <v>0.47360000000000002</v>
+      </c>
+      <c r="AB4">
+        <v>0.47332000000000002</v>
+      </c>
+      <c r="AC4">
+        <v>0.49506</v>
+      </c>
+      <c r="AD4">
+        <v>0.49258000000000002</v>
+      </c>
+      <c r="AE4">
+        <v>0.45976</v>
+      </c>
+      <c r="AF4">
+        <v>0.45141999999999999</v>
+      </c>
+      <c r="AG4">
+        <v>0.47417999999999999</v>
+      </c>
+      <c r="AH4">
+        <v>0.47498000000000001</v>
+      </c>
+      <c r="AI4">
+        <v>0.49271999999999999</v>
+      </c>
+      <c r="AJ4">
+        <v>0.45684000000000002</v>
+      </c>
+      <c r="AK4">
+        <v>0.47171999999999997</v>
+      </c>
+      <c r="AL4">
+        <v>0.47404000000000002</v>
+      </c>
+      <c r="AM4">
+        <v>0.48914000000000002</v>
+      </c>
+      <c r="AN4">
+        <v>0.49115999999999999</v>
+      </c>
+      <c r="AO4">
+        <v>0.48221999999999998</v>
+      </c>
+      <c r="AP4">
+        <v>0.49247999999999997</v>
+      </c>
+      <c r="AQ4">
+        <v>0.50504000000000004</v>
+      </c>
+      <c r="AR4">
+        <v>0.51890000000000003</v>
+      </c>
+      <c r="AS4">
+        <v>0.47742000000000001</v>
+      </c>
+      <c r="AT4">
+        <v>0.47682000000000002</v>
+      </c>
+      <c r="AU4">
+        <v>0.43536000000000002</v>
+      </c>
+      <c r="AV4">
+        <v>0.47765999999999997</v>
+      </c>
+      <c r="AW4">
+        <v>0.51881999999999995</v>
+      </c>
+      <c r="AX4">
+        <v>0.48653999999999997</v>
+      </c>
+      <c r="AY4">
+        <v>0.47896</v>
+      </c>
+      <c r="AZ4">
+        <v>0.46648000000000001</v>
+      </c>
+      <c r="BA4">
+        <v>0.49378</v>
+      </c>
+      <c r="BB4">
+        <v>0.46832000000000001</v>
+      </c>
+      <c r="BC4">
+        <v>0.47364000000000001</v>
+      </c>
+      <c r="BD4">
+        <v>0.44835999999999998</v>
+      </c>
+      <c r="BE4">
+        <v>0.48587999999999998</v>
+      </c>
+      <c r="BF4">
+        <v>0.45754</v>
+      </c>
+      <c r="BG4">
+        <v>0.45788000000000001</v>
+      </c>
+      <c r="BH4">
+        <v>0.49459999999999998</v>
+      </c>
+      <c r="BI4">
+        <v>0.47749999999999998</v>
+      </c>
+      <c r="BJ4">
+        <v>0.47242000000000001</v>
+      </c>
+      <c r="BK4">
+        <v>0.50316000000000005</v>
+      </c>
+      <c r="BL4">
+        <v>0.48068</v>
+      </c>
+      <c r="BM4">
+        <v>0.46989999999999998</v>
+      </c>
+      <c r="BN4">
+        <v>0.47048000000000001</v>
+      </c>
+      <c r="BO4">
+        <v>0.47595999999999999</v>
+      </c>
+      <c r="BP4">
+        <v>0.45995999999999998</v>
+      </c>
+      <c r="BQ4">
+        <v>0.43025999999999998</v>
+      </c>
+      <c r="BR4">
+        <v>0.46239999999999998</v>
+      </c>
+      <c r="BS4">
+        <v>0.50385999999999997</v>
+      </c>
+      <c r="BT4">
+        <v>0.48215999999999998</v>
+      </c>
+      <c r="BU4">
+        <v>0.48298000000000002</v>
+      </c>
+      <c r="BV4">
+        <v>0.47164</v>
+      </c>
+      <c r="BW4">
+        <v>0.45862000000000003</v>
+      </c>
+      <c r="BX4">
+        <v>0.43325999999999998</v>
+      </c>
+      <c r="BY4">
+        <v>0.48693999999999998</v>
+      </c>
+      <c r="BZ4">
+        <v>0.49664000000000003</v>
+      </c>
+      <c r="CA4">
+        <v>0.47936000000000001</v>
+      </c>
+      <c r="CB4">
+        <v>0.50614000000000003</v>
+      </c>
+      <c r="CC4">
+        <v>0.46522000000000002</v>
+      </c>
+      <c r="CD4">
+        <v>0.46310000000000001</v>
+      </c>
+      <c r="CE4">
+        <v>0.50082000000000004</v>
+      </c>
+      <c r="CF4">
+        <v>0.47786000000000001</v>
+      </c>
+      <c r="CG4">
+        <v>0.49325999999999998</v>
+      </c>
+      <c r="CH4">
+        <v>0.48592000000000002</v>
+      </c>
+      <c r="CI4">
+        <v>0.50958000000000003</v>
+      </c>
+      <c r="CJ4">
+        <v>0.46494000000000002</v>
+      </c>
+      <c r="CK4">
+        <v>0.45588000000000001</v>
+      </c>
+      <c r="CL4">
+        <v>0.49772</v>
+      </c>
+      <c r="CM4">
+        <v>0.47248000000000001</v>
+      </c>
+      <c r="CN4">
+        <v>0.45276</v>
+      </c>
+      <c r="CO4">
+        <v>0.49397999999999997</v>
+      </c>
+      <c r="CP4">
+        <v>0.47189999999999999</v>
+      </c>
+      <c r="CQ4">
+        <v>0.47927999999999998</v>
+      </c>
+      <c r="CR4">
+        <v>0.46988000000000002</v>
+      </c>
+      <c r="CS4">
+        <v>0.45984000000000003</v>
+      </c>
+      <c r="CT4">
+        <v>0.50646000000000002</v>
+      </c>
+      <c r="CU4">
+        <v>0.48486000000000001</v>
+      </c>
+      <c r="CV4">
+        <v>0.49909999999999999</v>
+      </c>
+      <c r="CW4">
+        <v>0.47771939999999985</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.46216000000000002</v>
+        <v>0.46400000000000002</v>
       </c>
       <c r="B5">
-        <v>0.47937999999999997</v>
+        <v>0.46716000000000002</v>
       </c>
       <c r="C5">
-        <v>0.47077000000000002</v>
+        <v>0.47005999999999998</v>
+      </c>
+      <c r="D5">
+        <v>0.48612</v>
+      </c>
+      <c r="E5">
+        <v>0.45406000000000002</v>
+      </c>
+      <c r="F5">
+        <v>0.46314</v>
+      </c>
+      <c r="G5">
+        <v>0.45554</v>
+      </c>
+      <c r="H5">
+        <v>0.45312000000000002</v>
+      </c>
+      <c r="I5">
+        <v>0.44641999999999998</v>
+      </c>
+      <c r="J5">
+        <v>0.46666000000000002</v>
+      </c>
+      <c r="K5">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="L5">
+        <v>0.47232000000000002</v>
+      </c>
+      <c r="M5">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="N5">
+        <v>0.44457999999999998</v>
+      </c>
+      <c r="O5">
+        <v>0.45368000000000003</v>
+      </c>
+      <c r="P5">
+        <v>0.48242000000000002</v>
+      </c>
+      <c r="Q5">
+        <v>0.47070000000000001</v>
+      </c>
+      <c r="R5">
+        <v>0.45313999999999999</v>
+      </c>
+      <c r="S5">
+        <v>0.42518</v>
+      </c>
+      <c r="T5">
+        <v>0.46450000000000002</v>
+      </c>
+      <c r="U5">
+        <v>0.47721999999999998</v>
+      </c>
+      <c r="V5">
+        <v>0.50104000000000004</v>
+      </c>
+      <c r="W5">
+        <v>0.47017999999999999</v>
+      </c>
+      <c r="X5">
+        <v>0.45494000000000001</v>
+      </c>
+      <c r="Y5">
+        <v>0.46644000000000002</v>
+      </c>
+      <c r="Z5">
+        <v>0.47788000000000003</v>
+      </c>
+      <c r="AA5">
+        <v>0.47720000000000001</v>
+      </c>
+      <c r="AB5">
+        <v>0.46150000000000002</v>
+      </c>
+      <c r="AC5">
+        <v>0.45835999999999999</v>
+      </c>
+      <c r="AD5">
+        <v>0.42997999999999997</v>
+      </c>
+      <c r="AE5">
+        <v>0.47776000000000002</v>
+      </c>
+      <c r="AF5">
+        <v>0.48753999999999997</v>
+      </c>
+      <c r="AG5">
+        <v>0.46926000000000001</v>
+      </c>
+      <c r="AH5">
+        <v>0.45122000000000001</v>
+      </c>
+      <c r="AI5">
+        <v>0.46388000000000001</v>
+      </c>
+      <c r="AJ5">
+        <v>0.45156000000000002</v>
+      </c>
+      <c r="AK5">
+        <v>0.47426000000000001</v>
+      </c>
+      <c r="AL5">
+        <v>0.46932000000000001</v>
+      </c>
+      <c r="AM5">
+        <v>0.45362000000000002</v>
+      </c>
+      <c r="AN5">
+        <v>0.45729999999999998</v>
+      </c>
+      <c r="AO5">
+        <v>0.44263999999999998</v>
+      </c>
+      <c r="AP5">
+        <v>0.43565999999999999</v>
+      </c>
+      <c r="AQ5">
+        <v>0.46989999999999998</v>
+      </c>
+      <c r="AR5">
+        <v>0.44679999999999997</v>
+      </c>
+      <c r="AS5">
+        <v>0.43393999999999999</v>
+      </c>
+      <c r="AT5">
+        <v>0.47776000000000002</v>
+      </c>
+      <c r="AU5">
+        <v>0.47010000000000002</v>
+      </c>
+      <c r="AV5">
+        <v>0.47474</v>
+      </c>
+      <c r="AW5">
+        <v>0.47123999999999999</v>
+      </c>
+      <c r="AX5">
+        <v>0.47798000000000002</v>
+      </c>
+      <c r="AY5">
+        <v>0.45078000000000001</v>
+      </c>
+      <c r="AZ5">
+        <v>0.46167999999999998</v>
+      </c>
+      <c r="BA5">
+        <v>0.44438</v>
+      </c>
+      <c r="BB5">
+        <v>0.46026</v>
+      </c>
+      <c r="BC5">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="BD5">
+        <v>0.44188</v>
+      </c>
+      <c r="BE5">
+        <v>0.44646000000000002</v>
+      </c>
+      <c r="BF5">
+        <v>0.44224000000000002</v>
+      </c>
+      <c r="BG5">
+        <v>0.47811999999999999</v>
+      </c>
+      <c r="BH5">
+        <v>0.43381999999999998</v>
+      </c>
+      <c r="BI5">
+        <v>0.45485999999999999</v>
+      </c>
+      <c r="BJ5">
+        <v>0.44718000000000002</v>
+      </c>
+      <c r="BK5">
+        <v>0.47876000000000002</v>
+      </c>
+      <c r="BL5">
+        <v>0.47258</v>
+      </c>
+      <c r="BM5">
+        <v>0.45450000000000002</v>
+      </c>
+      <c r="BN5">
+        <v>0.45569999999999999</v>
+      </c>
+      <c r="BO5">
+        <v>0.48054000000000002</v>
+      </c>
+      <c r="BP5">
+        <v>0.47214</v>
+      </c>
+      <c r="BQ5">
+        <v>0.47173999999999999</v>
+      </c>
+      <c r="BR5">
+        <v>0.47476000000000002</v>
+      </c>
+      <c r="BS5">
+        <v>0.44790000000000002</v>
+      </c>
+      <c r="BT5">
+        <v>0.47354000000000002</v>
+      </c>
+      <c r="BU5">
+        <v>0.49592000000000003</v>
+      </c>
+      <c r="BV5">
+        <v>0.45716000000000001</v>
+      </c>
+      <c r="BW5">
+        <v>0.43178</v>
+      </c>
+      <c r="BX5">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="BY5">
+        <v>0.45356000000000002</v>
+      </c>
+      <c r="BZ5">
+        <v>0.44844000000000001</v>
+      </c>
+      <c r="CA5">
+        <v>0.43897999999999998</v>
+      </c>
+      <c r="CB5">
+        <v>0.47554000000000002</v>
+      </c>
+      <c r="CC5">
+        <v>0.43525999999999998</v>
+      </c>
+      <c r="CD5">
+        <v>0.46726000000000001</v>
+      </c>
+      <c r="CE5">
+        <v>0.47532000000000002</v>
+      </c>
+      <c r="CF5">
+        <v>0.45422000000000001</v>
+      </c>
+      <c r="CG5">
+        <v>0.50044</v>
+      </c>
+      <c r="CH5">
+        <v>0.44928000000000001</v>
+      </c>
+      <c r="CI5">
+        <v>0.47814000000000001</v>
+      </c>
+      <c r="CJ5">
+        <v>0.46872000000000003</v>
+      </c>
+      <c r="CK5">
+        <v>0.48148000000000002</v>
+      </c>
+      <c r="CL5">
+        <v>0.46667999999999998</v>
+      </c>
+      <c r="CM5">
+        <v>0.43028</v>
+      </c>
+      <c r="CN5">
+        <v>0.44713999999999998</v>
+      </c>
+      <c r="CO5">
+        <v>0.46523999999999999</v>
+      </c>
+      <c r="CP5">
+        <v>0.47376000000000001</v>
+      </c>
+      <c r="CQ5">
+        <v>0.44972000000000001</v>
+      </c>
+      <c r="CR5">
+        <v>0.45628000000000002</v>
+      </c>
+      <c r="CS5">
+        <v>0.46626000000000001</v>
+      </c>
+      <c r="CT5">
+        <v>0.48096</v>
+      </c>
+      <c r="CU5">
+        <v>0.47658</v>
+      </c>
+      <c r="CV5">
+        <v>0.4582</v>
+      </c>
+      <c r="CW5">
+        <v>0.46221440000000008</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.42642000000000002</v>
+        <v>0.41704000000000002</v>
       </c>
       <c r="B6">
-        <v>0.46864</v>
+        <v>0.438</v>
       </c>
       <c r="C6">
-        <v>0.44752999999999998</v>
+        <v>0.46204000000000001</v>
+      </c>
+      <c r="D6">
+        <v>0.42496</v>
+      </c>
+      <c r="E6">
+        <v>0.4819</v>
+      </c>
+      <c r="F6">
+        <v>0.46001999999999998</v>
+      </c>
+      <c r="G6">
+        <v>0.43293999999999999</v>
+      </c>
+      <c r="H6">
+        <v>0.45876</v>
+      </c>
+      <c r="I6">
+        <v>0.46151999999999999</v>
+      </c>
+      <c r="J6">
+        <v>0.44397999999999999</v>
+      </c>
+      <c r="K6">
+        <v>0.46877999999999997</v>
+      </c>
+      <c r="L6">
+        <v>0.46616000000000002</v>
+      </c>
+      <c r="M6">
+        <v>0.43281999999999998</v>
+      </c>
+      <c r="N6">
+        <v>0.4456</v>
+      </c>
+      <c r="O6">
+        <v>0.46676000000000001</v>
+      </c>
+      <c r="P6">
+        <v>0.44391999999999998</v>
+      </c>
+      <c r="Q6">
+        <v>0.47883999999999999</v>
+      </c>
+      <c r="R6">
+        <v>0.44729999999999998</v>
+      </c>
+      <c r="S6">
+        <v>0.44785999999999998</v>
+      </c>
+      <c r="T6">
+        <v>0.47864000000000001</v>
+      </c>
+      <c r="U6">
+        <v>0.45619999999999999</v>
+      </c>
+      <c r="V6">
+        <v>0.44463999999999998</v>
+      </c>
+      <c r="W6">
+        <v>0.47354000000000002</v>
+      </c>
+      <c r="X6">
+        <v>0.48686000000000001</v>
+      </c>
+      <c r="Y6">
+        <v>0.46132000000000001</v>
+      </c>
+      <c r="Z6">
+        <v>0.46476000000000001</v>
+      </c>
+      <c r="AA6">
+        <v>0.43303999999999998</v>
+      </c>
+      <c r="AB6">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="AC6">
+        <v>0.46464</v>
+      </c>
+      <c r="AD6">
+        <v>0.43706</v>
+      </c>
+      <c r="AE6">
+        <v>0.45407999999999998</v>
+      </c>
+      <c r="AF6">
+        <v>0.45591999999999999</v>
+      </c>
+      <c r="AG6">
+        <v>0.43068000000000001</v>
+      </c>
+      <c r="AH6">
+        <v>0.44385999999999998</v>
+      </c>
+      <c r="AI6">
+        <v>0.46650000000000003</v>
+      </c>
+      <c r="AJ6">
+        <v>0.45318000000000003</v>
+      </c>
+      <c r="AK6">
+        <v>0.44884000000000002</v>
+      </c>
+      <c r="AL6">
+        <v>0.43524000000000002</v>
+      </c>
+      <c r="AM6">
+        <v>0.45679999999999998</v>
+      </c>
+      <c r="AN6">
+        <v>0.45616000000000001</v>
+      </c>
+      <c r="AO6">
+        <v>0.48155999999999999</v>
+      </c>
+      <c r="AP6">
+        <v>0.44891999999999999</v>
+      </c>
+      <c r="AQ6">
+        <v>0.43559999999999999</v>
+      </c>
+      <c r="AR6">
+        <v>0.48424</v>
+      </c>
+      <c r="AS6">
+        <v>0.43558000000000002</v>
+      </c>
+      <c r="AT6">
+        <v>0.4698</v>
+      </c>
+      <c r="AU6">
+        <v>0.46973999999999999</v>
+      </c>
+      <c r="AV6">
+        <v>0.43541999999999997</v>
+      </c>
+      <c r="AW6">
+        <v>0.43918000000000001</v>
+      </c>
+      <c r="AX6">
+        <v>0.46736</v>
+      </c>
+      <c r="AY6">
+        <v>0.48498000000000002</v>
+      </c>
+      <c r="AZ6">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="BA6">
+        <v>0.46282000000000001</v>
+      </c>
+      <c r="BB6">
+        <v>0.41660000000000003</v>
+      </c>
+      <c r="BC6">
+        <v>0.46367999999999998</v>
+      </c>
+      <c r="BD6">
+        <v>0.47070000000000001</v>
+      </c>
+      <c r="BE6">
+        <v>0.45839999999999997</v>
+      </c>
+      <c r="BF6">
+        <v>0.43293999999999999</v>
+      </c>
+      <c r="BG6">
+        <v>0.44524000000000002</v>
+      </c>
+      <c r="BH6">
+        <v>0.47683999999999999</v>
+      </c>
+      <c r="BI6">
+        <v>0.46832000000000001</v>
+      </c>
+      <c r="BJ6">
+        <v>0.45007999999999998</v>
+      </c>
+      <c r="BK6">
+        <v>0.43418000000000001</v>
+      </c>
+      <c r="BL6">
+        <v>0.44624000000000003</v>
+      </c>
+      <c r="BM6">
+        <v>0.42686000000000002</v>
+      </c>
+      <c r="BN6">
+        <v>0.45466000000000001</v>
+      </c>
+      <c r="BO6">
+        <v>0.48148000000000002</v>
+      </c>
+      <c r="BP6">
+        <v>0.43946000000000002</v>
+      </c>
+      <c r="BQ6">
+        <v>0.45266000000000001</v>
+      </c>
+      <c r="BR6">
+        <v>0.4496</v>
+      </c>
+      <c r="BS6">
+        <v>0.43753999999999998</v>
+      </c>
+      <c r="BT6">
+        <v>0.44019999999999998</v>
+      </c>
+      <c r="BU6">
+        <v>0.48970000000000002</v>
+      </c>
+      <c r="BV6">
+        <v>0.43997999999999998</v>
+      </c>
+      <c r="BW6">
+        <v>0.40001999999999999</v>
+      </c>
+      <c r="BX6">
+        <v>0.45107999999999998</v>
+      </c>
+      <c r="BY6">
+        <v>0.44801999999999997</v>
+      </c>
+      <c r="BZ6">
+        <v>0.46594000000000002</v>
+      </c>
+      <c r="CA6">
+        <v>0.48834</v>
+      </c>
+      <c r="CB6">
+        <v>0.44846000000000003</v>
+      </c>
+      <c r="CC6">
+        <v>0.44153999999999999</v>
+      </c>
+      <c r="CD6">
+        <v>0.45706000000000002</v>
+      </c>
+      <c r="CE6">
+        <v>0.44697999999999999</v>
+      </c>
+      <c r="CF6">
+        <v>0.43421999999999999</v>
+      </c>
+      <c r="CG6">
+        <v>0.45125999999999999</v>
+      </c>
+      <c r="CH6">
+        <v>0.46385999999999999</v>
+      </c>
+      <c r="CI6">
+        <v>0.46088000000000001</v>
+      </c>
+      <c r="CJ6">
+        <v>0.45841999999999999</v>
+      </c>
+      <c r="CK6">
+        <v>0.48011999999999999</v>
+      </c>
+      <c r="CL6">
+        <v>0.46522000000000002</v>
+      </c>
+      <c r="CM6">
+        <v>0.49334</v>
+      </c>
+      <c r="CN6">
+        <v>0.45029999999999998</v>
+      </c>
+      <c r="CO6">
+        <v>0.45078000000000001</v>
+      </c>
+      <c r="CP6">
+        <v>0.45879999999999999</v>
+      </c>
+      <c r="CQ6">
+        <v>0.44018000000000002</v>
+      </c>
+      <c r="CR6">
+        <v>0.47621999999999998</v>
+      </c>
+      <c r="CS6">
+        <v>0.41765999999999998</v>
+      </c>
+      <c r="CT6">
+        <v>0.47358</v>
+      </c>
+      <c r="CU6">
+        <v>0.46060000000000001</v>
+      </c>
+      <c r="CV6">
+        <v>0.44824000000000003</v>
+      </c>
+      <c r="CW6">
+        <v>0.4543584</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>0.44502000000000003</v>
+      </c>
+      <c r="B7">
+        <v>0.44052000000000002</v>
+      </c>
+      <c r="C7">
+        <v>0.42943999999999999</v>
+      </c>
+      <c r="D7">
+        <v>0.46514</v>
+      </c>
+      <c r="E7">
+        <v>0.43346000000000001</v>
+      </c>
+      <c r="F7">
+        <v>0.41461999999999999</v>
+      </c>
+      <c r="G7">
+        <v>0.44666</v>
+      </c>
+      <c r="H7">
+        <v>0.45688000000000001</v>
+      </c>
+      <c r="I7">
+        <v>0.44168000000000002</v>
+      </c>
+      <c r="J7">
+        <v>0.44738</v>
+      </c>
+      <c r="K7">
+        <v>0.44678000000000001</v>
+      </c>
+      <c r="L7">
+        <v>0.46013999999999999</v>
+      </c>
+      <c r="M7">
+        <v>0.45813999999999999</v>
+      </c>
+      <c r="N7">
+        <v>0.44275999999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.46479999999999999</v>
+      </c>
+      <c r="P7">
+        <v>0.48202</v>
+      </c>
+      <c r="Q7">
+        <v>0.44997999999999999</v>
+      </c>
+      <c r="R7">
+        <v>0.45206000000000002</v>
+      </c>
+      <c r="S7">
+        <v>0.44235999999999998</v>
+      </c>
+      <c r="T7">
+        <v>0.44046000000000002</v>
+      </c>
+      <c r="U7">
+        <v>0.43374000000000001</v>
+      </c>
+      <c r="V7">
+        <v>0.43256</v>
+      </c>
+      <c r="W7">
+        <v>0.44159999999999999</v>
+      </c>
+      <c r="X7">
+        <v>0.45407999999999998</v>
+      </c>
+      <c r="Y7">
+        <v>0.42709999999999998</v>
+      </c>
+      <c r="Z7">
+        <v>0.46883999999999998</v>
+      </c>
+      <c r="AA7">
+        <v>0.44824000000000003</v>
+      </c>
+      <c r="AB7">
+        <v>0.46438000000000001</v>
+      </c>
+      <c r="AC7">
+        <v>0.43397999999999998</v>
+      </c>
+      <c r="AD7">
+        <v>0.48427999999999999</v>
+      </c>
+      <c r="AE7">
+        <v>0.45772000000000002</v>
+      </c>
+      <c r="AF7">
+        <v>0.48433999999999999</v>
+      </c>
+      <c r="AG7">
+        <v>0.43365999999999999</v>
+      </c>
+      <c r="AH7">
+        <v>0.45150000000000001</v>
+      </c>
+      <c r="AI7">
+        <v>0.46567999999999998</v>
+      </c>
+      <c r="AJ7">
+        <v>0.41954000000000002</v>
+      </c>
+      <c r="AK7">
+        <v>0.44419999999999998</v>
+      </c>
+      <c r="AL7">
+        <v>0.46322000000000002</v>
+      </c>
+      <c r="AM7">
+        <v>0.44694</v>
+      </c>
+      <c r="AN7">
+        <v>0.43008000000000002</v>
+      </c>
+      <c r="AO7">
+        <v>0.44606000000000001</v>
+      </c>
+      <c r="AP7">
+        <v>0.46617999999999998</v>
+      </c>
+      <c r="AQ7">
+        <v>0.45162000000000002</v>
+      </c>
+      <c r="AR7">
+        <v>0.43406</v>
+      </c>
+      <c r="AS7">
+        <v>0.44228000000000001</v>
+      </c>
+      <c r="AT7">
+        <v>0.46850000000000003</v>
+      </c>
+      <c r="AU7">
+        <v>0.48270000000000002</v>
+      </c>
+      <c r="AV7">
+        <v>0.47411999999999999</v>
+      </c>
+      <c r="AW7">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="AX7">
+        <v>0.46379999999999999</v>
+      </c>
+      <c r="AY7">
+        <v>0.43763999999999997</v>
+      </c>
+      <c r="AZ7">
+        <v>0.42318</v>
+      </c>
+      <c r="BA7">
+        <v>0.47008</v>
+      </c>
+      <c r="BB7">
+        <v>0.47383999999999998</v>
+      </c>
+      <c r="BC7">
+        <v>0.43969999999999998</v>
+      </c>
+      <c r="BD7">
+        <v>0.45891999999999999</v>
+      </c>
+      <c r="BE7">
+        <v>0.44662000000000002</v>
+      </c>
+      <c r="BF7">
+        <v>0.43946000000000002</v>
+      </c>
+      <c r="BG7">
+        <v>0.45551999999999998</v>
+      </c>
+      <c r="BH7">
+        <v>0.47252</v>
+      </c>
+      <c r="BI7">
+        <v>0.45101999999999998</v>
+      </c>
+      <c r="BJ7">
+        <v>0.42974000000000001</v>
+      </c>
+      <c r="BK7">
+        <v>0.40150000000000002</v>
+      </c>
+      <c r="BL7">
+        <v>0.4556</v>
+      </c>
+      <c r="BM7">
+        <v>0.42320000000000002</v>
+      </c>
+      <c r="BN7">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="BO7">
+        <v>0.45862000000000003</v>
+      </c>
+      <c r="BP7">
+        <v>0.43831999999999999</v>
+      </c>
+      <c r="BQ7">
+        <v>0.44344</v>
+      </c>
+      <c r="BR7">
+        <v>0.43606</v>
+      </c>
+      <c r="BS7">
+        <v>0.46161999999999997</v>
+      </c>
+      <c r="BT7">
+        <v>0.42111999999999999</v>
+      </c>
+      <c r="BU7">
+        <v>0.42082000000000003</v>
+      </c>
+      <c r="BV7">
+        <v>0.43518000000000001</v>
+      </c>
+      <c r="BW7">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="BX7">
+        <v>0.45332</v>
+      </c>
+      <c r="BY7">
+        <v>0.47887999999999997</v>
+      </c>
+      <c r="BZ7">
+        <v>0.44119999999999998</v>
+      </c>
+      <c r="CA7">
+        <v>0.46251999999999999</v>
+      </c>
+      <c r="CB7">
+        <v>0.44344</v>
+      </c>
+      <c r="CC7">
+        <v>0.44929999999999998</v>
+      </c>
+      <c r="CD7">
+        <v>0.41804000000000002</v>
+      </c>
+      <c r="CE7">
+        <v>0.48621999999999999</v>
+      </c>
+      <c r="CF7">
+        <v>0.45106000000000002</v>
+      </c>
+      <c r="CG7">
+        <v>0.46651999999999999</v>
+      </c>
+      <c r="CH7">
+        <v>0.45534000000000002</v>
+      </c>
+      <c r="CI7">
+        <v>0.44863999999999998</v>
+      </c>
+      <c r="CJ7">
+        <v>0.44081999999999999</v>
+      </c>
+      <c r="CK7">
+        <v>0.45957999999999999</v>
+      </c>
+      <c r="CL7">
+        <v>0.4622</v>
+      </c>
+      <c r="CM7">
+        <v>0.45169999999999999</v>
+      </c>
+      <c r="CN7">
+        <v>0.442</v>
+      </c>
+      <c r="CO7">
+        <v>0.45350000000000001</v>
+      </c>
+      <c r="CP7">
+        <v>0.48246</v>
+      </c>
+      <c r="CQ7">
+        <v>0.41333999999999999</v>
+      </c>
+      <c r="CR7">
+        <v>0.45294000000000001</v>
+      </c>
+      <c r="CS7">
+        <v>0.43393999999999999</v>
+      </c>
+      <c r="CT7">
+        <v>0.41061999999999999</v>
+      </c>
+      <c r="CU7">
+        <v>0.43581999999999999</v>
+      </c>
+      <c r="CV7">
+        <v>0.43246000000000001</v>
+      </c>
+      <c r="CW7">
+        <v>0.44793879999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.4531</v>
+      </c>
+      <c r="B8">
+        <v>0.44269999999999998</v>
+      </c>
+      <c r="C8">
+        <v>0.45382</v>
+      </c>
+      <c r="D8">
+        <v>0.47498000000000001</v>
+      </c>
+      <c r="E8">
+        <v>0.42743999999999999</v>
+      </c>
+      <c r="F8">
+        <v>0.46614</v>
+      </c>
+      <c r="G8">
+        <v>0.41814000000000001</v>
+      </c>
+      <c r="H8">
+        <v>0.42653999999999997</v>
+      </c>
+      <c r="I8">
+        <v>0.44481999999999999</v>
+      </c>
+      <c r="J8">
+        <v>0.41926000000000002</v>
+      </c>
+      <c r="K8">
+        <v>0.43708000000000002</v>
+      </c>
+      <c r="L8">
+        <v>0.45689999999999997</v>
+      </c>
+      <c r="M8">
+        <v>0.46095999999999998</v>
+      </c>
+      <c r="N8">
+        <v>0.44622000000000001</v>
+      </c>
+      <c r="O8">
+        <v>0.42383999999999999</v>
+      </c>
+      <c r="P8">
+        <v>0.44512000000000002</v>
+      </c>
+      <c r="Q8">
+        <v>0.44257999999999997</v>
+      </c>
+      <c r="R8">
+        <v>0.44903999999999999</v>
+      </c>
+      <c r="S8">
+        <v>0.45807999999999999</v>
+      </c>
+      <c r="T8">
+        <v>0.45992</v>
+      </c>
+      <c r="U8">
+        <v>0.44901999999999997</v>
+      </c>
+      <c r="V8">
+        <v>0.43941999999999998</v>
+      </c>
+      <c r="W8">
+        <v>0.45907999999999999</v>
+      </c>
+      <c r="X8">
+        <v>0.44196000000000002</v>
+      </c>
+      <c r="Y8">
+        <v>0.43865999999999999</v>
+      </c>
+      <c r="Z8">
+        <v>0.45928000000000002</v>
+      </c>
+      <c r="AA8">
+        <v>0.45250000000000001</v>
+      </c>
+      <c r="AB8">
+        <v>0.46761999999999998</v>
+      </c>
+      <c r="AC8">
+        <v>0.45140000000000002</v>
+      </c>
+      <c r="AD8">
+        <v>0.42693999999999999</v>
+      </c>
+      <c r="AE8">
+        <v>0.44494</v>
+      </c>
+      <c r="AF8">
+        <v>0.44084000000000001</v>
+      </c>
+      <c r="AG8">
+        <v>0.43931999999999999</v>
+      </c>
+      <c r="AH8">
+        <v>0.42455999999999999</v>
+      </c>
+      <c r="AI8">
+        <v>0.41424</v>
+      </c>
+      <c r="AJ8">
+        <v>0.44624000000000003</v>
+      </c>
+      <c r="AK8">
+        <v>0.42505999999999999</v>
+      </c>
+      <c r="AL8">
+        <v>0.45779999999999998</v>
+      </c>
+      <c r="AM8">
+        <v>0.44638</v>
+      </c>
+      <c r="AN8">
+        <v>0.44607999999999998</v>
+      </c>
+      <c r="AO8">
+        <v>0.43994</v>
+      </c>
+      <c r="AP8">
+        <v>0.42659999999999998</v>
+      </c>
+      <c r="AQ8">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="AR8">
+        <v>0.42324000000000001</v>
+      </c>
+      <c r="AS8">
+        <v>0.43246000000000001</v>
+      </c>
+      <c r="AT8">
+        <v>0.43059999999999998</v>
+      </c>
+      <c r="AU8">
+        <v>0.46729999999999999</v>
+      </c>
+      <c r="AV8">
+        <v>0.42759999999999998</v>
+      </c>
+      <c r="AW8">
+        <v>0.45966000000000001</v>
+      </c>
+      <c r="AX8">
+        <v>0.43868000000000001</v>
+      </c>
+      <c r="AY8">
+        <v>0.44996000000000003</v>
+      </c>
+      <c r="AZ8">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="BA8">
+        <v>0.44058000000000003</v>
+      </c>
+      <c r="BB8">
+        <v>0.47370000000000001</v>
+      </c>
+      <c r="BC8">
+        <v>0.39860000000000001</v>
+      </c>
+      <c r="BD8">
+        <v>0.46567999999999998</v>
+      </c>
+      <c r="BE8">
+        <v>0.40056000000000003</v>
+      </c>
+      <c r="BF8">
+        <v>0.45878000000000002</v>
+      </c>
+      <c r="BG8">
+        <v>0.41896</v>
+      </c>
+      <c r="BH8">
+        <v>0.46692</v>
+      </c>
+      <c r="BI8">
+        <v>0.40538000000000002</v>
+      </c>
+      <c r="BJ8">
+        <v>0.43103999999999998</v>
+      </c>
+      <c r="BK8">
+        <v>0.44113999999999998</v>
+      </c>
+      <c r="BL8">
+        <v>0.44130000000000003</v>
+      </c>
+      <c r="BM8">
+        <v>0.42681999999999998</v>
+      </c>
+      <c r="BN8">
+        <v>0.46855999999999998</v>
+      </c>
+      <c r="BO8">
+        <v>0.45684000000000002</v>
+      </c>
+      <c r="BP8">
+        <v>0.43458000000000002</v>
+      </c>
+      <c r="BQ8">
+        <v>0.47027999999999998</v>
+      </c>
+      <c r="BR8">
+        <v>0.47133999999999998</v>
+      </c>
+      <c r="BS8">
+        <v>0.45669999999999999</v>
+      </c>
+      <c r="BT8">
+        <v>0.43578</v>
+      </c>
+      <c r="BU8">
+        <v>0.47883999999999999</v>
+      </c>
+      <c r="BV8">
+        <v>0.44681999999999999</v>
+      </c>
+      <c r="BW8">
+        <v>0.43875999999999998</v>
+      </c>
+      <c r="BX8">
+        <v>0.41842000000000001</v>
+      </c>
+      <c r="BY8">
+        <v>0.41254000000000002</v>
+      </c>
+      <c r="BZ8">
+        <v>0.48115999999999998</v>
+      </c>
+      <c r="CA8">
+        <v>0.45628000000000002</v>
+      </c>
+      <c r="CB8">
+        <v>0.42174</v>
+      </c>
+      <c r="CC8">
+        <v>0.44674000000000003</v>
+      </c>
+      <c r="CD8">
+        <v>0.41648000000000002</v>
+      </c>
+      <c r="CE8">
+        <v>0.40479999999999999</v>
+      </c>
+      <c r="CF8">
+        <v>0.43865999999999999</v>
+      </c>
+      <c r="CG8">
+        <v>0.44285000000000002</v>
+      </c>
+      <c r="CH8">
+        <v>0.46160000000000001</v>
+      </c>
+      <c r="CI8">
+        <v>0.45012000000000002</v>
+      </c>
+      <c r="CJ8">
+        <v>0.43190000000000001</v>
+      </c>
+      <c r="CK8">
+        <v>0.44950000000000001</v>
+      </c>
+      <c r="CL8">
+        <v>0.43436000000000002</v>
+      </c>
+      <c r="CM8">
+        <v>0.43202000000000002</v>
+      </c>
+      <c r="CN8">
+        <v>0.44080000000000003</v>
+      </c>
+      <c r="CO8">
+        <v>0.44650000000000001</v>
+      </c>
+      <c r="CP8">
+        <v>0.45335999999999999</v>
+      </c>
+      <c r="CQ8">
+        <v>0.46298</v>
+      </c>
+      <c r="CR8">
+        <v>0.46798000000000001</v>
+      </c>
+      <c r="CS8">
+        <v>0.41102</v>
+      </c>
+      <c r="CT8">
+        <v>0.45390000000000003</v>
+      </c>
+      <c r="CU8">
+        <v>0.44662000000000002</v>
+      </c>
+      <c r="CV8">
+        <v>0.45579999999999998</v>
+      </c>
+      <c r="CW8">
+        <v>0.44334150000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.41896</v>
+      </c>
+      <c r="B9">
+        <v>0.45172000000000001</v>
+      </c>
+      <c r="C9">
+        <v>0.44707999999999998</v>
+      </c>
+      <c r="D9">
+        <v>0.46013999999999999</v>
+      </c>
+      <c r="E9">
+        <v>0.43212</v>
+      </c>
+      <c r="F9">
+        <v>0.44046000000000002</v>
+      </c>
+      <c r="G9">
+        <v>0.47783999999999999</v>
+      </c>
+      <c r="H9">
+        <v>0.45113999999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.44146999999999997</v>
+      </c>
+      <c r="J9">
+        <v>0.45268000000000003</v>
+      </c>
+      <c r="K9">
+        <v>0.47867999999999999</v>
+      </c>
+      <c r="L9">
+        <v>0.44225999999999999</v>
+      </c>
+      <c r="M9">
+        <v>0.43996000000000002</v>
+      </c>
+      <c r="N9">
+        <v>0.45290000000000002</v>
+      </c>
+      <c r="O9">
+        <v>0.45297999999999999</v>
+      </c>
+      <c r="P9">
+        <v>0.44506000000000001</v>
+      </c>
+      <c r="Q9">
+        <v>0.47214</v>
+      </c>
+      <c r="R9">
+        <v>0.43137999999999999</v>
+      </c>
+      <c r="S9">
+        <v>0.48615999999999998</v>
+      </c>
+      <c r="T9">
+        <v>0.44447999999999999</v>
+      </c>
+      <c r="U9">
+        <v>0.41632000000000002</v>
+      </c>
+      <c r="V9">
+        <v>0.42486000000000002</v>
+      </c>
+      <c r="W9">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="X9">
+        <v>0.44996000000000003</v>
+      </c>
+      <c r="Y9">
+        <v>0.42698000000000003</v>
+      </c>
+      <c r="Z9">
+        <v>0.43852000000000002</v>
+      </c>
+      <c r="AA9">
+        <v>0.44074000000000002</v>
+      </c>
+      <c r="AB9">
+        <v>0.42534</v>
+      </c>
+      <c r="AC9">
+        <v>0.46078000000000002</v>
+      </c>
+      <c r="AD9">
+        <v>0.45190000000000002</v>
+      </c>
+      <c r="AE9">
+        <v>0.46942</v>
+      </c>
+      <c r="AF9">
+        <v>0.46528000000000003</v>
+      </c>
+      <c r="AG9">
+        <v>0.42774000000000001</v>
+      </c>
+      <c r="AH9">
+        <v>0.47232000000000002</v>
+      </c>
+      <c r="AI9">
+        <v>0.43619999999999998</v>
+      </c>
+      <c r="AJ9">
+        <v>0.42059999999999997</v>
+      </c>
+      <c r="AK9">
+        <v>0.44982</v>
+      </c>
+      <c r="AL9">
+        <v>0.43668000000000001</v>
+      </c>
+      <c r="AM9">
+        <v>0.44868000000000002</v>
+      </c>
+      <c r="AN9">
+        <v>0.44331999999999999</v>
+      </c>
+      <c r="AO9">
+        <v>0.44502000000000003</v>
+      </c>
+      <c r="AP9">
+        <v>0.45088</v>
+      </c>
+      <c r="AQ9">
+        <v>0.42321999999999999</v>
+      </c>
+      <c r="AR9">
+        <v>0.43612000000000001</v>
+      </c>
+      <c r="AS9">
+        <v>0.43047999999999997</v>
+      </c>
+      <c r="AT9">
+        <v>0.42902000000000001</v>
+      </c>
+      <c r="AU9">
+        <v>0.44597999999999999</v>
+      </c>
+      <c r="AV9">
+        <v>0.44090000000000001</v>
+      </c>
+      <c r="AW9">
+        <v>0.42908000000000002</v>
+      </c>
+      <c r="AX9">
+        <v>0.43142000000000003</v>
+      </c>
+      <c r="AY9">
+        <v>0.45426</v>
+      </c>
+      <c r="AZ9">
+        <v>0.42098000000000002</v>
+      </c>
+      <c r="BA9">
+        <v>0.45942</v>
+      </c>
+      <c r="BB9">
+        <v>0.44703999999999999</v>
+      </c>
+      <c r="BC9">
+        <v>0.44506000000000001</v>
+      </c>
+      <c r="BD9">
+        <v>0.45197999999999999</v>
+      </c>
+      <c r="BE9">
+        <v>0.44503999999999999</v>
+      </c>
+      <c r="BF9">
+        <v>0.47126000000000001</v>
+      </c>
+      <c r="BG9">
+        <v>0.44209999999999999</v>
+      </c>
+      <c r="BH9">
+        <v>0.44688</v>
+      </c>
+      <c r="BI9">
+        <v>0.41455999999999998</v>
+      </c>
+      <c r="BJ9">
+        <v>0.43406</v>
+      </c>
+      <c r="BK9">
+        <v>0.44484000000000001</v>
+      </c>
+      <c r="BL9">
+        <v>0.43280000000000002</v>
+      </c>
+      <c r="BM9">
+        <v>0.44116</v>
+      </c>
+      <c r="BN9">
+        <v>0.45851999999999998</v>
+      </c>
+      <c r="BO9">
+        <v>0.41658000000000001</v>
+      </c>
+      <c r="BP9">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="BQ9">
+        <v>0.44374000000000002</v>
+      </c>
+      <c r="BR9">
+        <v>0.43568000000000001</v>
+      </c>
+      <c r="BS9">
+        <v>0.42774000000000001</v>
+      </c>
+      <c r="BT9">
+        <v>0.42362</v>
+      </c>
+      <c r="BU9">
+        <v>0.44954</v>
+      </c>
+      <c r="BV9">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="BW9">
+        <v>0.41987999999999998</v>
+      </c>
+      <c r="BX9">
+        <v>0.48943999999999999</v>
+      </c>
+      <c r="BY9">
+        <v>0.44724000000000003</v>
+      </c>
+      <c r="BZ9">
+        <v>0.41286</v>
+      </c>
+      <c r="CA9">
+        <v>0.45723999999999998</v>
+      </c>
+      <c r="CB9">
+        <v>0.44769999999999999</v>
+      </c>
+      <c r="CC9">
+        <v>0.44579999999999997</v>
+      </c>
+      <c r="CD9">
+        <v>0.46650000000000003</v>
+      </c>
+      <c r="CE9">
+        <v>0.43206</v>
+      </c>
+      <c r="CF9">
+        <v>0.45172000000000001</v>
+      </c>
+      <c r="CG9">
+        <v>0.43675999999999998</v>
+      </c>
+      <c r="CH9">
+        <v>0.42018</v>
+      </c>
+      <c r="CI9">
+        <v>0.43712000000000001</v>
+      </c>
+      <c r="CJ9">
+        <v>0.45554</v>
+      </c>
+      <c r="CK9">
+        <v>0.44419999999999998</v>
+      </c>
+      <c r="CL9">
+        <v>0.42834</v>
+      </c>
+      <c r="CM9">
+        <v>0.42409999999999998</v>
+      </c>
+      <c r="CN9">
+        <v>0.44675999999999999</v>
+      </c>
+      <c r="CO9">
+        <v>0.45945999999999998</v>
+      </c>
+      <c r="CP9">
+        <v>0.42283999999999999</v>
+      </c>
+      <c r="CQ9">
+        <v>0.43121999999999999</v>
+      </c>
+      <c r="CR9">
+        <v>0.46992</v>
+      </c>
+      <c r="CS9">
+        <v>0.47073999999999999</v>
+      </c>
+      <c r="CT9">
+        <v>0.45535999999999999</v>
+      </c>
+      <c r="CU9">
+        <v>0.45784000000000002</v>
+      </c>
+      <c r="CV9">
+        <v>0.46439999999999998</v>
+      </c>
+      <c r="CW9">
+        <v>0.4440727000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.40482000000000001</v>
+      </c>
+      <c r="B10">
+        <v>0.43564000000000003</v>
+      </c>
+      <c r="C10">
+        <v>0.43690000000000001</v>
+      </c>
+      <c r="D10">
+        <v>0.42502000000000001</v>
+      </c>
+      <c r="E10">
+        <v>0.43724000000000002</v>
+      </c>
+      <c r="F10">
+        <v>0.44638</v>
+      </c>
+      <c r="G10">
+        <v>0.42609999999999998</v>
+      </c>
+      <c r="H10">
+        <v>0.43953999999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.45023999999999997</v>
+      </c>
+      <c r="J10">
+        <v>0.44907999999999998</v>
+      </c>
+      <c r="K10">
+        <v>0.43728</v>
+      </c>
+      <c r="L10">
+        <v>0.44735999999999998</v>
+      </c>
+      <c r="M10">
+        <v>0.43369999999999997</v>
+      </c>
+      <c r="N10">
+        <v>0.45882000000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.41715999999999998</v>
+      </c>
+      <c r="P10">
+        <v>0.44403999999999999</v>
+      </c>
+      <c r="Q10">
+        <v>0.43415999999999999</v>
+      </c>
+      <c r="R10">
+        <v>0.41308</v>
+      </c>
+      <c r="S10">
+        <v>0.44166</v>
+      </c>
+      <c r="T10">
+        <v>0.45807999999999999</v>
+      </c>
+      <c r="U10">
+        <v>0.44235999999999998</v>
+      </c>
+      <c r="V10">
+        <v>0.44935999999999998</v>
+      </c>
+      <c r="W10">
+        <v>0.43590000000000001</v>
+      </c>
+      <c r="X10">
+        <v>0.43752000000000002</v>
+      </c>
+      <c r="Y10">
+        <v>0.44119999999999998</v>
+      </c>
+      <c r="Z10">
+        <v>0.43034</v>
+      </c>
+      <c r="AA10">
+        <v>0.44130000000000003</v>
+      </c>
+      <c r="AB10">
+        <v>0.44061</v>
+      </c>
+      <c r="AC10">
+        <v>0.43512000000000001</v>
+      </c>
+      <c r="AD10">
+        <v>0.46679999999999999</v>
+      </c>
+      <c r="AE10">
+        <v>0.44484000000000001</v>
+      </c>
+      <c r="AF10">
+        <v>0.45572000000000001</v>
+      </c>
+      <c r="AG10">
+        <v>0.41770000000000002</v>
+      </c>
+      <c r="AH10">
+        <v>0.44519999999999998</v>
+      </c>
+      <c r="AI10">
+        <v>0.43737999999999999</v>
+      </c>
+      <c r="AJ10">
+        <v>0.45557999999999998</v>
+      </c>
+      <c r="AK10">
+        <v>0.44388</v>
+      </c>
+      <c r="AL10">
+        <v>0.4521</v>
+      </c>
+      <c r="AM10">
+        <v>0.44638</v>
+      </c>
+      <c r="AN10">
+        <v>0.45012000000000002</v>
+      </c>
+      <c r="AO10">
+        <v>0.45663999999999999</v>
+      </c>
+      <c r="AP10">
+        <v>0.41032000000000002</v>
+      </c>
+      <c r="AQ10">
+        <v>0.43012</v>
+      </c>
+      <c r="AR10">
+        <v>0.43175999999999998</v>
+      </c>
+      <c r="AS10">
+        <v>0.42126000000000002</v>
+      </c>
+      <c r="AT10">
+        <v>0.43702000000000002</v>
+      </c>
+      <c r="AU10">
+        <v>0.41889999999999999</v>
+      </c>
+      <c r="AV10">
+        <v>0.4501</v>
+      </c>
+      <c r="AW10">
+        <v>0.42252000000000001</v>
+      </c>
+      <c r="AX10">
+        <v>0.45282</v>
+      </c>
+      <c r="AY10">
+        <v>0.42124</v>
+      </c>
+      <c r="AZ10">
+        <v>0.44566</v>
+      </c>
+      <c r="BA10">
+        <v>0.43565999999999999</v>
+      </c>
+      <c r="BB10">
+        <v>0.43540000000000001</v>
+      </c>
+      <c r="BC10">
+        <v>0.43812000000000001</v>
+      </c>
+      <c r="BD10">
+        <v>0.43342000000000003</v>
+      </c>
+      <c r="BE10">
+        <v>0.43697999999999998</v>
+      </c>
+      <c r="BF10">
+        <v>0.44209999999999999</v>
+      </c>
+      <c r="BG10">
+        <v>0.44624000000000003</v>
+      </c>
+      <c r="BH10">
+        <v>0.42831999999999998</v>
+      </c>
+      <c r="BI10">
+        <v>0.45112000000000002</v>
+      </c>
+      <c r="BJ10">
+        <v>0.40889999999999999</v>
+      </c>
+      <c r="BK10">
+        <v>0.44503999999999999</v>
+      </c>
+      <c r="BL10">
+        <v>0.44568000000000002</v>
+      </c>
+      <c r="BM10">
+        <v>0.44766</v>
+      </c>
+      <c r="BN10">
+        <v>0.44844000000000001</v>
+      </c>
+      <c r="BO10">
+        <v>0.44844000000000001</v>
+      </c>
+      <c r="BP10">
+        <v>0.45894000000000001</v>
+      </c>
+      <c r="BQ10">
+        <v>0.43769999999999998</v>
+      </c>
+      <c r="BR10">
+        <v>0.45197999999999999</v>
+      </c>
+      <c r="BS10">
+        <v>0.44618000000000002</v>
+      </c>
+      <c r="BT10">
+        <v>0.44016</v>
+      </c>
+      <c r="BU10">
+        <v>0.43225999999999998</v>
+      </c>
+      <c r="BV10">
+        <v>0.44507999999999998</v>
+      </c>
+      <c r="BW10">
+        <v>0.45175999999999999</v>
+      </c>
+      <c r="BX10">
+        <v>0.43980000000000002</v>
+      </c>
+      <c r="BY10">
+        <v>0.43962000000000001</v>
+      </c>
+      <c r="BZ10">
+        <v>0.41295999999999999</v>
+      </c>
+      <c r="CA10">
+        <v>0.42968000000000001</v>
+      </c>
+      <c r="CB10">
+        <v>0.42549999999999999</v>
+      </c>
+      <c r="CC10">
+        <v>0.45395999999999997</v>
+      </c>
+      <c r="CD10">
+        <v>0.45263999999999999</v>
+      </c>
+      <c r="CE10">
+        <v>0.42759999999999998</v>
+      </c>
+      <c r="CF10">
+        <v>0.44718000000000002</v>
+      </c>
+      <c r="CG10">
+        <v>0.44184000000000001</v>
+      </c>
+      <c r="CH10">
+        <v>0.41070000000000001</v>
+      </c>
+      <c r="CI10">
+        <v>0.43612000000000001</v>
+      </c>
+      <c r="CJ10">
+        <v>0.44181999999999999</v>
+      </c>
+      <c r="CK10">
+        <v>0.43168000000000001</v>
+      </c>
+      <c r="CL10">
+        <v>0.44375999999999999</v>
+      </c>
+      <c r="CM10">
+        <v>0.43736000000000003</v>
+      </c>
+      <c r="CN10">
+        <v>0.43562000000000001</v>
+      </c>
+      <c r="CO10">
+        <v>0.44353999999999999</v>
+      </c>
+      <c r="CP10">
+        <v>0.43497999999999998</v>
+      </c>
+      <c r="CQ10">
+        <v>0.41271999999999998</v>
+      </c>
+      <c r="CR10">
+        <v>0.46098</v>
+      </c>
+      <c r="CS10">
+        <v>0.42975999999999998</v>
+      </c>
+      <c r="CT10">
+        <v>0.41586000000000001</v>
+      </c>
+      <c r="CU10">
+        <v>0.42274</v>
+      </c>
+      <c r="CV10">
+        <v>0.42730000000000001</v>
+      </c>
+      <c r="CW10">
+        <v>0.43815369999999987</v>
+      </c>
+    </row>
+    <row r="11" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.44125999999999999</v>
+      </c>
+      <c r="B11">
+        <v>0.45506000000000002</v>
+      </c>
+      <c r="C11">
+        <v>0.44563999999999998</v>
+      </c>
+      <c r="D11">
+        <v>0.43752000000000002</v>
+      </c>
+      <c r="E11">
+        <v>0.43393999999999999</v>
+      </c>
+      <c r="F11">
+        <v>0.44590000000000002</v>
+      </c>
+      <c r="G11">
+        <v>0.43794</v>
+      </c>
+      <c r="H11">
+        <v>0.45129999999999998</v>
+      </c>
+      <c r="I11">
+        <v>0.45401999999999998</v>
+      </c>
+      <c r="J11">
+        <v>0.46510000000000001</v>
+      </c>
+      <c r="K11">
+        <v>0.46808</v>
+      </c>
+      <c r="L11">
+        <v>0.42698000000000003</v>
+      </c>
+      <c r="M11">
+        <v>0.43480000000000002</v>
+      </c>
+      <c r="N11">
+        <v>0.42058000000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.45469999999999999</v>
+      </c>
+      <c r="P11">
+        <v>0.44231999999999999</v>
+      </c>
+      <c r="Q11">
+        <v>0.45056000000000002</v>
+      </c>
+      <c r="R11">
+        <v>0.46356000000000003</v>
+      </c>
+      <c r="S11">
+        <v>0.41317999999999999</v>
+      </c>
+      <c r="T11">
+        <v>0.43522</v>
+      </c>
+      <c r="U11">
+        <v>0.42652000000000001</v>
+      </c>
+      <c r="V11">
+        <v>0.44490000000000002</v>
+      </c>
+      <c r="W11">
+        <v>0.42070000000000002</v>
+      </c>
+      <c r="X11">
+        <v>0.42480000000000001</v>
+      </c>
+      <c r="Y11">
+        <v>0.45122000000000001</v>
+      </c>
+      <c r="Z11">
+        <v>0.43669999999999998</v>
+      </c>
+      <c r="AA11">
+        <v>0.46489999999999998</v>
+      </c>
+      <c r="AB11">
+        <v>0.42242000000000002</v>
+      </c>
+      <c r="AC11">
+        <v>0.43269999999999997</v>
+      </c>
+      <c r="AD11">
+        <v>0.43696000000000002</v>
+      </c>
+      <c r="AE11">
+        <v>0.43647999999999998</v>
+      </c>
+      <c r="AF11">
+        <v>0.44657999999999998</v>
+      </c>
+      <c r="AG11">
+        <v>0.42402000000000001</v>
+      </c>
+      <c r="AH11">
+        <v>0.42455999999999999</v>
+      </c>
+      <c r="AI11">
+        <v>0.43524000000000002</v>
+      </c>
+      <c r="AJ11">
+        <v>0.44438</v>
+      </c>
+      <c r="AK11">
+        <v>0.46942</v>
+      </c>
+      <c r="AL11">
+        <v>0.42492000000000002</v>
+      </c>
+      <c r="AM11">
+        <v>0.40801999999999999</v>
+      </c>
+      <c r="AN11">
+        <v>0.43608000000000002</v>
+      </c>
+      <c r="AO11">
+        <v>0.44524000000000002</v>
+      </c>
+      <c r="AP11">
+        <v>0.41721999999999998</v>
+      </c>
+      <c r="AQ11">
+        <v>0.44525999999999999</v>
+      </c>
+      <c r="AR11">
+        <v>0.43659999999999999</v>
+      </c>
+      <c r="AS11">
+        <v>0.40844000000000003</v>
+      </c>
+      <c r="AT11">
+        <v>0.44266</v>
+      </c>
+      <c r="AU11">
+        <v>0.43865999999999999</v>
+      </c>
+      <c r="AV11">
+        <v>0.43153999999999998</v>
+      </c>
+      <c r="AW11">
+        <v>0.43846000000000002</v>
+      </c>
+      <c r="AX11">
+        <v>0.4526</v>
+      </c>
+      <c r="AY11">
+        <v>0.44735999999999998</v>
+      </c>
+      <c r="AZ11">
+        <v>0.45168000000000003</v>
+      </c>
+      <c r="BA11">
+        <v>0.42884</v>
+      </c>
+      <c r="BB11">
+        <v>0.42262</v>
+      </c>
+      <c r="BC11">
+        <v>0.44028</v>
+      </c>
+      <c r="BD11">
+        <v>0.45939999999999998</v>
+      </c>
+      <c r="BE11">
+        <v>0.43374000000000001</v>
+      </c>
+      <c r="BF11">
+        <v>0.43334</v>
+      </c>
+      <c r="BG11">
+        <v>0.42756</v>
+      </c>
+      <c r="BH11">
+        <v>0.44297999999999998</v>
+      </c>
+      <c r="BI11">
+        <v>0.45138</v>
+      </c>
+      <c r="BJ11">
+        <v>0.45306000000000002</v>
+      </c>
+      <c r="BK11">
+        <v>0.42736000000000002</v>
+      </c>
+      <c r="BL11">
+        <v>0.45035999999999998</v>
+      </c>
+      <c r="BM11">
+        <v>0.45634000000000002</v>
+      </c>
+      <c r="BN11">
+        <v>0.44378000000000001</v>
+      </c>
+      <c r="BO11">
+        <v>0.47244000000000003</v>
+      </c>
+      <c r="BP11">
+        <v>0.43175999999999998</v>
+      </c>
+      <c r="BQ11">
+        <v>0.44546999999999998</v>
+      </c>
+      <c r="BR11">
+        <v>0.44828000000000001</v>
+      </c>
+      <c r="BS11">
+        <v>0.42856</v>
+      </c>
+      <c r="BT11">
+        <v>0.44635999999999998</v>
+      </c>
+      <c r="BU11">
+        <v>0.436</v>
+      </c>
+      <c r="BV11">
+        <v>0.47643999999999997</v>
+      </c>
+      <c r="BW11">
         <v>0.43453999999999998</v>
       </c>
-      <c r="B7">
-        <v>0.44068000000000002</v>
-      </c>
-      <c r="C7">
-        <v>0.43761</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>0.4178</v>
-      </c>
-      <c r="B8">
-        <v>0.42536000000000002</v>
-      </c>
-      <c r="C8">
-        <v>0.42158000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>0.40067999999999998</v>
-      </c>
-      <c r="B9">
-        <v>0.47354000000000002</v>
-      </c>
-      <c r="C9">
-        <v>0.43711</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>0.43049999999999999</v>
-      </c>
-      <c r="B10">
-        <v>0.44096000000000002</v>
-      </c>
-      <c r="C10">
-        <v>0.43573000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>0.43581999999999999</v>
-      </c>
-      <c r="B11">
-        <v>0.44603999999999999</v>
-      </c>
-      <c r="C11">
-        <v>0.44092999999999999</v>
+      <c r="BX11">
+        <v>0.42756</v>
+      </c>
+      <c r="BY11">
+        <v>0.43353999999999998</v>
+      </c>
+      <c r="BZ11">
+        <v>0.43020000000000003</v>
+      </c>
+      <c r="CA11">
+        <v>0.43587999999999999</v>
+      </c>
+      <c r="CB11">
+        <v>0.45363999999999999</v>
+      </c>
+      <c r="CC11">
+        <v>0.44346000000000002</v>
+      </c>
+      <c r="CD11">
+        <v>0.45066000000000001</v>
+      </c>
+      <c r="CE11">
+        <v>0.45344000000000001</v>
+      </c>
+      <c r="CF11">
+        <v>0.44122</v>
+      </c>
+      <c r="CG11">
+        <v>0.42624000000000001</v>
+      </c>
+      <c r="CH11">
+        <v>0.43321999999999999</v>
+      </c>
+      <c r="CI11">
+        <v>0.45091999999999999</v>
+      </c>
+      <c r="CJ11">
+        <v>0.45104</v>
+      </c>
+      <c r="CK11">
+        <v>0.45104</v>
+      </c>
+      <c r="CL11">
+        <v>0.42014000000000001</v>
+      </c>
+      <c r="CM11">
+        <v>0.45306000000000002</v>
+      </c>
+      <c r="CN11">
+        <v>0.43290000000000001</v>
+      </c>
+      <c r="CO11">
+        <v>0.43687999999999999</v>
+      </c>
+      <c r="CP11">
+        <v>0.44973999999999997</v>
+      </c>
+      <c r="CQ11">
+        <v>0.42602000000000001</v>
+      </c>
+      <c r="CR11">
+        <v>0.44503999999999999</v>
+      </c>
+      <c r="CS11">
+        <v>0.46688000000000002</v>
+      </c>
+      <c r="CT11">
+        <v>0.44268000000000002</v>
+      </c>
+      <c r="CU11">
+        <v>0.42562</v>
+      </c>
+      <c r="CV11">
+        <v>0.43124000000000001</v>
+      </c>
+      <c r="CW11">
+        <v>0.44048049999999994</v>
       </c>
     </row>
   </sheetData>
